--- a/AvanceProyectoMDY001.xlsx
+++ b/AvanceProyectoMDY001.xlsx
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="Horario" sheetId="1" r:id="rId1"/>
     <sheet name="Actividades diarias" sheetId="2" r:id="rId2"/>
+    <sheet name="Parametros" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="ESTADOS">Parametros!$B$2:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Día</t>
   </si>
@@ -63,6 +67,30 @@
   </si>
   <si>
     <t>PESO (CASOS)</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>1. Pendiente</t>
+  </si>
+  <si>
+    <t>2. Construcción</t>
+  </si>
+  <si>
+    <t>3. Pruebas</t>
+  </si>
+  <si>
+    <t>4. Producción</t>
   </si>
 </sst>
 </file>
@@ -70,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +129,13 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,9 +170,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,10 +182,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,83 +529,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D1" s="7">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8">
         <v>42682</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7">
-        <f>D1+1</f>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8">
+        <f>E1+1</f>
         <v>42683</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
-        <f>F1+1</f>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8">
+        <f>G1+1</f>
         <v>42684</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
-        <f>H1+1</f>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8">
+        <f>I1+1</f>
         <v>42685</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7">
-        <f>J1+1</f>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8">
+        <f>K1+1</f>
         <v>42686</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7">
-        <f>L1+1</f>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8">
+        <f>M1+1</f>
         <v>42687</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7">
-        <f>N1+2</f>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8">
+        <f>O1+2</f>
         <v>42689</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7">
-        <f>P1+1</f>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8">
+        <f>Q1+1</f>
         <v>42690</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7">
-        <f>R1+1</f>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8">
+        <f>S1+1</f>
         <v>42691</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7">
-        <f>T1+1</f>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8">
+        <f>U1+1</f>
         <v>42692</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7">
-        <f>V1+1</f>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8">
+        <f>W1+1</f>
         <v>42693</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7">
-        <f>X1+1</f>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8">
+        <f>Y1+1</f>
         <v>42694</v>
       </c>
-      <c r="AA1" s="7"/>
-    </row>
-    <row r="2" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -576,462 +620,526 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6">
-        <f>SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <f>E3*$A3/SUM($A$3:$A$10)+E4*$A4/SUM($A$3:$A$10)+E5*$A5/SUM($A$3:$A$10)+E6*$A6/SUM($A$3:$A$10)+E7*$A7/SUM($A$3:$A$10)+E8*$A8/SUM($A$3:$A$10)+E9*$A9/SUM($A$3:$A$10)+E10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f>SUM(F3:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f>G3*$A3/SUM($A$3:$A$10)+G4*$A4/SUM($A$3:$A$10)+G5*$A5/SUM($A$3:$A$10)+G6*$A6/SUM($A$3:$A$10)+G7*$A7/SUM($A$3:$A$10)+G8*$A8/SUM($A$3:$A$10)+G9*$A9/SUM($A$3:$A$10)+G10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SUM(H3:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <f>I3*$A3/SUM($A$3:$A$10)+I4*$A4/SUM($A$3:$A$10)+I5*$A5/SUM($A$3:$A$10)+I6*$A6/SUM($A$3:$A$10)+I7*$A7/SUM($A$3:$A$10)+I8*$A8/SUM($A$3:$A$10)+I9*$A9/SUM($A$3:$A$10)+I10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <f>SUM(J3:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <f>K3*$A3/SUM($A$3:$A$10)+K4*$A4/SUM($A$3:$A$10)+K5*$A5/SUM($A$3:$A$10)+K6*$A6/SUM($A$3:$A$10)+K7*$A7/SUM($A$3:$A$10)+K8*$A8/SUM($A$3:$A$10)+K9*$A9/SUM($A$3:$A$10)+K10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <f>SUM(L3:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <f>M3*$A3/SUM($A$3:$A$10)+M4*$A4/SUM($A$3:$A$10)+M5*$A5/SUM($A$3:$A$10)+M6*$A6/SUM($A$3:$A$10)+M7*$A7/SUM($A$3:$A$10)+M8*$A8/SUM($A$3:$A$10)+M9*$A9/SUM($A$3:$A$10)+M10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <f>SUM(N3:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <f>O3*$A3/SUM($A$3:$A$10)+O4*$A4/SUM($A$3:$A$10)+O5*$A5/SUM($A$3:$A$10)+O6*$A6/SUM($A$3:$A$10)+O7*$A7/SUM($A$3:$A$10)+O8*$A8/SUM($A$3:$A$10)+O9*$A9/SUM($A$3:$A$10)+O10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <f>SUM(P3:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <f>Q3*$A3/SUM($A$3:$A$10)+Q4*$A4/SUM($A$3:$A$10)+Q5*$A5/SUM($A$3:$A$10)+Q6*$A6/SUM($A$3:$A$10)+Q7*$A7/SUM($A$3:$A$10)+Q8*$A8/SUM($A$3:$A$10)+Q9*$A9/SUM($A$3:$A$10)+Q10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <f>SUM(R3:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <f>S3*$A3/SUM($A$3:$A$10)+S4*$A4/SUM($A$3:$A$10)+S5*$A5/SUM($A$3:$A$10)+S6*$A6/SUM($A$3:$A$10)+S7*$A7/SUM($A$3:$A$10)+S8*$A8/SUM($A$3:$A$10)+S9*$A9/SUM($A$3:$A$10)+S10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="6">
-        <f>SUM(T3:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <f>U3*$A3/SUM($A$3:$A$10)+U4*$A4/SUM($A$3:$A$10)+U5*$A5/SUM($A$3:$A$10)+U6*$A6/SUM($A$3:$A$10)+U7*$A7/SUM($A$3:$A$10)+U8*$A8/SUM($A$3:$A$10)+U9*$A9/SUM($A$3:$A$10)+U10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="6">
-        <f>SUM(V3:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <f>W3*$A3/SUM($A$3:$A$10)+W4*$A4/SUM($A$3:$A$10)+W5*$A5/SUM($A$3:$A$10)+W6*$A6/SUM($A$3:$A$10)+W7*$A7/SUM($A$3:$A$10)+W8*$A8/SUM($A$3:$A$10)+W9*$A9/SUM($A$3:$A$10)+W10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="6">
-        <f>SUM(X3:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <f>Y3*$A3/SUM($A$3:$A$10)+Y4*$A4/SUM($A$3:$A$10)+Y5*$A5/SUM($A$3:$A$10)+Y6*$A6/SUM($A$3:$A$10)+Y7*$A7/SUM($A$3:$A$10)+Y8*$A8/SUM($A$3:$A$10)+Y9*$A9/SUM($A$3:$A$10)+Y10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <f>SUM(Z3:Z10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <f>AA3*$A3/SUM($A$3:$A$10)+AA4*$A4/SUM($A$3:$A$10)+AA5*$A5/SUM($A$3:$A$10)+AA6*$A6/SUM($A$3:$A$10)+AA7*$A7/SUM($A$3:$A$10)+AA8*$A8/SUM($A$3:$A$10)+AA9*$A9/SUM($A$3:$A$10)+AA10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <f>SUM(E3:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>F3*$A3/SUM($A$3:$A$10)+F4*$A4/SUM($A$3:$A$10)+F5*$A5/SUM($A$3:$A$10)+F6*$A6/SUM($A$3:$A$10)+F7*$A7/SUM($A$3:$A$10)+F8*$A8/SUM($A$3:$A$10)+F9*$A9/SUM($A$3:$A$10)+F10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f>SUM(G3:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f>H3*$A3/SUM($A$3:$A$10)+H4*$A4/SUM($A$3:$A$10)+H5*$A5/SUM($A$3:$A$10)+H6*$A6/SUM($A$3:$A$10)+H7*$A7/SUM($A$3:$A$10)+H8*$A8/SUM($A$3:$A$10)+H9*$A9/SUM($A$3:$A$10)+H10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <f>SUM(I3:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <f>J3*$A3/SUM($A$3:$A$10)+J4*$A4/SUM($A$3:$A$10)+J5*$A5/SUM($A$3:$A$10)+J6*$A6/SUM($A$3:$A$10)+J7*$A7/SUM($A$3:$A$10)+J8*$A8/SUM($A$3:$A$10)+J9*$A9/SUM($A$3:$A$10)+J10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f>SUM(K3:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f>L3*$A3/SUM($A$3:$A$10)+L4*$A4/SUM($A$3:$A$10)+L5*$A5/SUM($A$3:$A$10)+L6*$A6/SUM($A$3:$A$10)+L7*$A7/SUM($A$3:$A$10)+L8*$A8/SUM($A$3:$A$10)+L9*$A9/SUM($A$3:$A$10)+L10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f>SUM(M3:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <f>N3*$A3/SUM($A$3:$A$10)+N4*$A4/SUM($A$3:$A$10)+N5*$A5/SUM($A$3:$A$10)+N6*$A6/SUM($A$3:$A$10)+N7*$A7/SUM($A$3:$A$10)+N8*$A8/SUM($A$3:$A$10)+N9*$A9/SUM($A$3:$A$10)+N10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>SUM(O3:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <f>P3*$A3/SUM($A$3:$A$10)+P4*$A4/SUM($A$3:$A$10)+P5*$A5/SUM($A$3:$A$10)+P6*$A6/SUM($A$3:$A$10)+P7*$A7/SUM($A$3:$A$10)+P8*$A8/SUM($A$3:$A$10)+P9*$A9/SUM($A$3:$A$10)+P10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>SUM(Q3:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <f>R3*$A3/SUM($A$3:$A$10)+R4*$A4/SUM($A$3:$A$10)+R5*$A5/SUM($A$3:$A$10)+R6*$A6/SUM($A$3:$A$10)+R7*$A7/SUM($A$3:$A$10)+R8*$A8/SUM($A$3:$A$10)+R9*$A9/SUM($A$3:$A$10)+R10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f>SUM(S3:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <f>T3*$A3/SUM($A$3:$A$10)+T4*$A4/SUM($A$3:$A$10)+T5*$A5/SUM($A$3:$A$10)+T6*$A6/SUM($A$3:$A$10)+T7*$A7/SUM($A$3:$A$10)+T8*$A8/SUM($A$3:$A$10)+T9*$A9/SUM($A$3:$A$10)+T10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <f>SUM(U3:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <f>V3*$A3/SUM($A$3:$A$10)+V4*$A4/SUM($A$3:$A$10)+V5*$A5/SUM($A$3:$A$10)+V6*$A6/SUM($A$3:$A$10)+V7*$A7/SUM($A$3:$A$10)+V8*$A8/SUM($A$3:$A$10)+V9*$A9/SUM($A$3:$A$10)+V10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="6">
+        <f>SUM(W3:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="7">
+        <f>X3*$A3/SUM($A$3:$A$10)+X4*$A4/SUM($A$3:$A$10)+X5*$A5/SUM($A$3:$A$10)+X6*$A6/SUM($A$3:$A$10)+X7*$A7/SUM($A$3:$A$10)+X8*$A8/SUM($A$3:$A$10)+X9*$A9/SUM($A$3:$A$10)+X10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>SUM(Y3:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
+        <f>Z3*$A3/SUM($A$3:$A$10)+Z4*$A4/SUM($A$3:$A$10)+Z5*$A5/SUM($A$3:$A$10)+Z6*$A6/SUM($A$3:$A$10)+Z7*$A7/SUM($A$3:$A$10)+Z8*$A8/SUM($A$3:$A$10)+Z9*$A9/SUM($A$3:$A$10)+Z10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>SUM(AA3:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <f>AB3*$A3/SUM($A$3:$A$10)+AB4*$A4/SUM($A$3:$A$10)+AB5*$A5/SUM($A$3:$A$10)+AB6*$A6/SUM($A$3:$A$10)+AB7*$A7/SUM($A$3:$A$10)+AB8*$A8/SUM($A$3:$A$10)+AB9*$A9/SUM($A$3:$A$10)+AB10*$A10/SUM($A$3:$A$10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+  <mergeCells count="13">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D10">
+      <formula1>ESTADOS</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AvanceProyectoMDY001.xlsx
+++ b/AvanceProyectoMDY001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18780" windowHeight="11655" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="18780" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Horario" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Día</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>4. Producción</t>
+  </si>
+  <si>
+    <t>08:00-17:00</t>
+  </si>
+  <si>
+    <t>14:00  - 22:00</t>
   </si>
 </sst>
 </file>
@@ -183,13 +189,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,13 +542,14 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,65 +557,65 @@
       <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="10">
         <v>42682</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10">
         <f>E1+1</f>
         <v>42683</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10">
         <f>G1+1</f>
         <v>42684</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10">
         <f>I1+1</f>
         <v>42685</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10">
         <f>K1+1</f>
         <v>42686</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10">
         <f>M1+1</f>
         <v>42687</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10">
         <f>O1+2</f>
         <v>42689</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10">
         <f>Q1+1</f>
         <v>42690</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10">
         <f>S1+1</f>
         <v>42691</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10">
         <f>U1+1</f>
         <v>42692</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8">
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10">
         <f>W1+1</f>
         <v>42693</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8">
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10">
         <f>Y1+1</f>
         <v>42694</v>
       </c>
-      <c r="AB1" s="8"/>
+      <c r="AB1" s="10"/>
     </row>
     <row r="2" spans="1:28" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -704,11 +711,17 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -751,11 +764,17 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -799,10 +818,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -846,10 +865,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -939,11 +958,17 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -985,19 +1010,19 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6">
         <f>SUM(E3:E10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="7">
         <f>F3*$A3/SUM($A$3:$A$10)+F4*$A4/SUM($A$3:$A$10)+F5*$A5/SUM($A$3:$A$10)+F6*$A6/SUM($A$3:$A$10)+F7*$A7/SUM($A$3:$A$10)+F8*$A8/SUM($A$3:$A$10)+F9*$A9/SUM($A$3:$A$10)+F10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G11" s="6">
         <f>SUM(G3:G10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="7">
         <f>H3*$A3/SUM($A$3:$A$10)+H4*$A4/SUM($A$3:$A$10)+H5*$A5/SUM($A$3:$A$10)+H6*$A6/SUM($A$3:$A$10)+H7*$A7/SUM($A$3:$A$10)+H8*$A8/SUM($A$3:$A$10)+H9*$A9/SUM($A$3:$A$10)+H10*$A10/SUM($A$3:$A$10)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I11" s="6">
         <f>SUM(I3:I10)</f>
@@ -1080,7 +1105,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="D1:D2"/>
@@ -1120,22 +1152,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
     </row>

--- a/AvanceProyectoMDY001.xlsx
+++ b/AvanceProyectoMDY001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="18780" windowHeight="11595" activeTab="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Día</t>
   </si>
@@ -93,10 +93,13 @@
     <t>4. Producción</t>
   </si>
   <si>
-    <t>08:00-17:00</t>
-  </si>
-  <si>
-    <t>14:00  - 22:00</t>
+    <t>Hora de Inicio</t>
+  </si>
+  <si>
+    <t>Hora de Fin</t>
+  </si>
+  <si>
+    <t>Duración</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -196,6 +199,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,13 +541,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,13 +1110,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+      <c r="E14" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="12">
+        <f>E14-E13</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="12">
+        <f>G14-G13</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
